--- a/biology/Zoologie/Cybaeus_takachihoensis/Cybaeus_takachihoensis.xlsx
+++ b/biology/Zoologie/Cybaeus_takachihoensis/Cybaeus_takachihoensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cybaeus takachihoensis est une espèce d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cybaeus takachihoensis est une espèce d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Kyūshū au Japon[1],[2]. Elle se rencontre vers Takachiho dans la préfecture de Miyazaki.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Kyūshū au Japon,. Elle se rencontre vers Takachiho dans la préfecture de Miyazaki.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,33 mm et la femelle paratype 3,86 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,33 mm et la femelle paratype 3,86 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de takachiho et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Takachiho.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Irie &amp; Ono, 2010 : New spider species of the genera Masirana and Cybaeus (Araneae, Leptonetidae and Cybaeidae) from Kyushu, Japan. Bulletin of the National Museum of Nature and Science, Tokyo, sér. A, vol. 36, p. 101-106 (texte original).</t>
         </is>
